--- a/data/Subset2_WithDialogActs/TalkBack.Year1.Travers.Spring.020620-1.xlsx_with_dialog_acts.xlsx
+++ b/data/Subset2_WithDialogActs/TalkBack.Year1.Travers.Spring.020620-1.xlsx_with_dialog_acts.xlsx
@@ -513,12 +513,12 @@
       <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -555,12 +555,12 @@
       <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -1059,12 +1059,12 @@
       <c r="H15" t="inlineStr"/>
       <c r="I15" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -1101,12 +1101,12 @@
       <c r="H16" t="inlineStr"/>
       <c r="I16" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -1185,12 +1185,12 @@
       <c r="H18" t="inlineStr"/>
       <c r="I18" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -1437,12 +1437,12 @@
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -1773,12 +1773,12 @@
       <c r="H32" t="inlineStr"/>
       <c r="I32" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -2579,12 +2579,12 @@
       <c r="H51" t="inlineStr"/>
       <c r="I51" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -2873,12 +2873,12 @@
       <c r="H58" t="inlineStr"/>
       <c r="I58" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -2915,12 +2915,12 @@
       <c r="H59" t="inlineStr"/>
       <c r="I59" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -3167,12 +3167,12 @@
       <c r="H65" t="inlineStr"/>
       <c r="I65" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -3419,12 +3419,12 @@
       <c r="H71" t="inlineStr"/>
       <c r="I71" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J71" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -3545,12 +3545,12 @@
       <c r="H74" t="inlineStr"/>
       <c r="I74" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J74" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -3671,12 +3671,12 @@
       <c r="H77" t="inlineStr"/>
       <c r="I77" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J77" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -3797,12 +3797,12 @@
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J80" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -4007,12 +4007,12 @@
       <c r="H85" t="inlineStr"/>
       <c r="I85" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J85" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -4385,12 +4385,12 @@
       <c r="H94" t="inlineStr"/>
       <c r="I94" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J94" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -4805,12 +4805,12 @@
       <c r="H104" t="inlineStr"/>
       <c r="I104" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J104" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -4973,12 +4973,12 @@
       <c r="H108" t="inlineStr"/>
       <c r="I108" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J108" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -5519,12 +5519,12 @@
       <c r="H121" t="inlineStr"/>
       <c r="I121" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J121" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -5561,12 +5561,12 @@
       <c r="H122" t="inlineStr"/>
       <c r="I122" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J122" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -5687,12 +5687,12 @@
       <c r="H125" t="inlineStr"/>
       <c r="I125" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J125" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -5813,12 +5813,12 @@
       <c r="H128" t="inlineStr"/>
       <c r="I128" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J128" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -6107,12 +6107,12 @@
       <c r="H135" t="inlineStr"/>
       <c r="I135" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J135" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -6149,12 +6149,12 @@
       <c r="H136" t="inlineStr"/>
       <c r="I136" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J136" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -6317,12 +6317,12 @@
       <c r="H140" t="inlineStr"/>
       <c r="I140" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J140" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -6447,12 +6447,12 @@
       <c r="H143" t="inlineStr"/>
       <c r="I143" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J143" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -6615,12 +6615,12 @@
       <c r="H147" t="inlineStr"/>
       <c r="I147" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J147" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -7119,12 +7119,12 @@
       <c r="H159" t="inlineStr"/>
       <c r="I159" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J159" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -7581,12 +7581,12 @@
       <c r="H170" t="inlineStr"/>
       <c r="I170" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J170" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -7623,12 +7623,12 @@
       </c>
       <c r="I171" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J171" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -8803,12 +8803,12 @@
       <c r="H199" t="inlineStr"/>
       <c r="I199" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J199" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -8887,12 +8887,12 @@
       <c r="H201" t="inlineStr"/>
       <c r="I201" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J201" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -9601,12 +9601,12 @@
       <c r="H218" t="inlineStr"/>
       <c r="I218" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J218" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -9811,12 +9811,12 @@
       <c r="H223" t="inlineStr"/>
       <c r="I223" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J223" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -10571,12 +10571,12 @@
       </c>
       <c r="I241" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J241" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -10613,12 +10613,12 @@
       <c r="H242" t="inlineStr"/>
       <c r="I242" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J242" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -11033,12 +11033,12 @@
       <c r="H252" t="inlineStr"/>
       <c r="I252" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J252" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -11075,12 +11075,12 @@
       <c r="H253" t="inlineStr"/>
       <c r="I253" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J253" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -11159,12 +11159,12 @@
       <c r="H255" t="inlineStr"/>
       <c r="I255" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J255" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -11411,12 +11411,12 @@
       <c r="H261" t="inlineStr"/>
       <c r="I261" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J261" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -11579,12 +11579,12 @@
       <c r="H265" t="inlineStr"/>
       <c r="I265" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J265" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -11789,12 +11789,12 @@
       <c r="H270" t="inlineStr"/>
       <c r="I270" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J270" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -11873,12 +11873,12 @@
       <c r="H272" t="inlineStr"/>
       <c r="I272" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J272" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -12087,12 +12087,12 @@
       </c>
       <c r="I277" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J277" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -12129,12 +12129,12 @@
       <c r="H278" t="inlineStr"/>
       <c r="I278" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J278" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -12885,12 +12885,12 @@
       <c r="H296" t="inlineStr"/>
       <c r="I296" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J296" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -13095,12 +13095,12 @@
       <c r="H301" t="inlineStr"/>
       <c r="I301" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J301" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -13389,12 +13389,12 @@
       <c r="H308" t="inlineStr"/>
       <c r="I308" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J308" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -13767,12 +13767,12 @@
       <c r="H317" t="inlineStr"/>
       <c r="I317" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J317" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -13893,12 +13893,12 @@
       <c r="H320" t="inlineStr"/>
       <c r="I320" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J320" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -14485,12 +14485,12 @@
       <c r="H334" t="inlineStr"/>
       <c r="I334" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J334" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -14527,12 +14527,12 @@
       </c>
       <c r="I335" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J335" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -14569,12 +14569,12 @@
       <c r="H336" t="inlineStr"/>
       <c r="I336" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J336" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -14695,12 +14695,12 @@
       <c r="H339" t="inlineStr"/>
       <c r="I339" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J339" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -14737,12 +14737,12 @@
       <c r="H340" t="inlineStr"/>
       <c r="I340" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J340" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -14863,12 +14863,12 @@
       <c r="H343" t="inlineStr"/>
       <c r="I343" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J343" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -16169,12 +16169,12 @@
       <c r="H374" t="inlineStr"/>
       <c r="I374" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J374" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -17097,12 +17097,12 @@
       </c>
       <c r="I396" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J396" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -17223,12 +17223,12 @@
       <c r="H399" t="inlineStr"/>
       <c r="I399" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J399" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -17475,12 +17475,12 @@
       <c r="H405" t="inlineStr"/>
       <c r="I405" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J405" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -17937,12 +17937,12 @@
       <c r="H416" t="inlineStr"/>
       <c r="I416" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J416" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -18693,12 +18693,12 @@
       </c>
       <c r="I434" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J434" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -19575,12 +19575,12 @@
       <c r="H455" t="inlineStr"/>
       <c r="I455" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J455" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -20541,12 +20541,12 @@
       <c r="H478" t="inlineStr"/>
       <c r="I478" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J478" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -21255,12 +21255,12 @@
       </c>
       <c r="I495" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J495" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -21591,12 +21591,12 @@
       </c>
       <c r="I503" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J503" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -21633,12 +21633,12 @@
       </c>
       <c r="I504" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J504" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -21675,12 +21675,12 @@
       </c>
       <c r="I505" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J505" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -21969,12 +21969,12 @@
       <c r="H512" t="inlineStr"/>
       <c r="I512" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J512" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -23909,12 +23909,12 @@
       <c r="H558" t="inlineStr"/>
       <c r="I558" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J558" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -24119,12 +24119,12 @@
       <c r="H563" t="inlineStr"/>
       <c r="I563" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>qy</t>
         </is>
       </c>
       <c r="J563" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Yes-No-Question</t>
         </is>
       </c>
     </row>
@@ -24245,12 +24245,12 @@
       <c r="H566" t="inlineStr"/>
       <c r="I566" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J566" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -24581,12 +24581,12 @@
       <c r="H574" t="inlineStr"/>
       <c r="I574" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J574" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -24707,12 +24707,12 @@
       <c r="H577" t="inlineStr"/>
       <c r="I577" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J577" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -25005,12 +25005,12 @@
       </c>
       <c r="I584" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J584" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -25723,12 +25723,12 @@
       <c r="H601" t="inlineStr"/>
       <c r="I601" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J601" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -26059,12 +26059,12 @@
       <c r="H609" t="inlineStr"/>
       <c r="I609" t="inlineStr">
         <is>
-          <t>ba</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J609" t="inlineStr">
         <is>
-          <t>Appreciation</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -26857,12 +26857,12 @@
       <c r="H628" t="inlineStr"/>
       <c r="I628" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J628" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -27025,12 +27025,12 @@
       <c r="H632" t="inlineStr"/>
       <c r="I632" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J632" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -27067,12 +27067,12 @@
       <c r="H633" t="inlineStr"/>
       <c r="I633" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J633" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -27151,12 +27151,12 @@
       <c r="H635" t="inlineStr"/>
       <c r="I635" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J635" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -27403,12 +27403,12 @@
       <c r="H641" t="inlineStr"/>
       <c r="I641" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J641" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -27529,12 +27529,12 @@
       <c r="H644" t="inlineStr"/>
       <c r="I644" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J644" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -27655,12 +27655,12 @@
       <c r="H647" t="inlineStr"/>
       <c r="I647" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J647" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -27949,12 +27949,12 @@
       <c r="H654" t="inlineStr"/>
       <c r="I654" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J654" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -28117,12 +28117,12 @@
       <c r="H658" t="inlineStr"/>
       <c r="I658" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J658" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -28327,12 +28327,12 @@
       <c r="H663" t="inlineStr"/>
       <c r="I663" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J663" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -28411,12 +28411,12 @@
       <c r="H665" t="inlineStr"/>
       <c r="I665" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J665" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -28663,12 +28663,12 @@
       <c r="H671" t="inlineStr"/>
       <c r="I671" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J671" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -28705,12 +28705,12 @@
       </c>
       <c r="I672" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J672" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -28747,12 +28747,12 @@
       <c r="H673" t="inlineStr"/>
       <c r="I673" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J673" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -28789,12 +28789,12 @@
       </c>
       <c r="I674" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J674" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -28915,12 +28915,12 @@
       </c>
       <c r="I677" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J677" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -28957,12 +28957,12 @@
       <c r="H678" t="inlineStr"/>
       <c r="I678" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J678" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -29125,12 +29125,12 @@
       <c r="H682" t="inlineStr"/>
       <c r="I682" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J682" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -29293,12 +29293,12 @@
       <c r="H686" t="inlineStr"/>
       <c r="I686" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J686" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -29503,12 +29503,12 @@
       <c r="H691" t="inlineStr"/>
       <c r="I691" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J691" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -29671,12 +29671,12 @@
       <c r="H695" t="inlineStr"/>
       <c r="I695" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J695" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
